--- a/results/MSE/result.xlsx
+++ b/results/MSE/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Color Quantization\NEW F\results\MSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navneet\College\win21\LSM\agarwalvarun1-Color-Quantization\results\MSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E109AD-FEB8-4A2E-976C-5A381FFDF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F716F0-24BC-4F43-B24C-CAC2809E96A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>AIRPLANE</t>
   </si>
   <si>
-    <t>MANDRIL</t>
-  </si>
-  <si>
     <t>PEPPER</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>IMAGE</t>
+  </si>
+  <si>
+    <t>MANDRILL</t>
   </si>
 </sst>
 </file>
@@ -233,15 +233,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,6 +240,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,34 +556,34 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A13" sqref="A13:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="8" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1">
         <v>8</v>
       </c>
@@ -603,11 +603,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2">
@@ -629,9 +629,9 @@
         <v>42.308444976806641</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4">
@@ -653,9 +653,9 @@
         <v>55.947738647460938</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4">
@@ -677,9 +677,9 @@
         <v>100.9953300209046</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4">
@@ -701,9 +701,9 @@
         <v>80.739768981933594</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6">
@@ -725,11 +725,11 @@
         <v>55.715286254882813</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2">
@@ -751,9 +751,9 @@
         <v>29.759563446044918</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4">
@@ -775,9 +775,9 @@
         <v>41.804443359375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4">
@@ -799,9 +799,9 @@
         <v>68.733689422607426</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4">
@@ -823,9 +823,9 @@
         <v>78.22247314453125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="6">
@@ -847,11 +847,11 @@
         <v>72.504161834716797</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="2">
@@ -873,9 +873,9 @@
         <v>11.13698196411133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4">
@@ -897,9 +897,9 @@
         <v>30.592861175537109</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4">
@@ -921,9 +921,9 @@
         <v>133.76673824691781</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4">
@@ -945,9 +945,9 @@
         <v>24.491756439208981</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="6">
@@ -969,11 +969,11 @@
         <v>75.667255401611328</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2">
@@ -995,9 +995,9 @@
         <v>147.47897720336911</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="4">
@@ -1019,9 +1019,9 @@
         <v>117.31520843505859</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4">
@@ -1043,9 +1043,9 @@
         <v>174.54928826522831</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4">
@@ -1067,9 +1067,9 @@
         <v>159.27753829956049</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="6">
@@ -1091,11 +1091,11 @@
         <v>144.02049255371091</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2">
@@ -1117,9 +1117,9 @@
         <v>111.09550094604489</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12" t="s">
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="4">
@@ -1141,9 +1141,9 @@
         <v>116.9523086547852</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12" t="s">
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="4">
@@ -1165,9 +1165,9 @@
         <v>147.32291145706179</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="4">
@@ -1189,9 +1189,9 @@
         <v>174.12849044799799</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="6">
@@ -1213,11 +1213,11 @@
         <v>113.9224472045898</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2">
@@ -1239,9 +1239,9 @@
         <v>80.513635253906244</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="4">
@@ -1263,9 +1263,9 @@
         <v>116.6212931315104</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12" t="s">
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="4">
@@ -1287,9 +1287,9 @@
         <v>136.91921053873699</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12" t="s">
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="4">
@@ -1311,9 +1311,9 @@
         <v>146.50396321614579</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="6">
@@ -1337,15 +1337,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/results/MSE/result.xlsx
+++ b/results/MSE/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navneet\College\win21\LSM\agarwalvarun1-Color-Quantization\results\MSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F716F0-24BC-4F43-B24C-CAC2809E96A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED53E5-F9BB-40FB-A892-6B908C8514A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,13 +242,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,24 +581,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1">
         <v>8</v>
       </c>
@@ -604,33 +619,33 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="14">
         <v>503.57406997680658</v>
       </c>
       <c r="D3" s="2">
         <v>369.28163909912109</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="14">
         <v>207.75263214111331</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="14">
         <v>130.69082260131839</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="14">
         <v>67.292922973632813</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="16">
         <v>42.308444976806641</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
@@ -654,7 +669,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +693,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -702,14 +717,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>610.95843505859375</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="15">
         <v>362.0911865234375</v>
       </c>
       <c r="E7" s="6">
@@ -726,7 +741,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -738,21 +753,21 @@
       <c r="D8" s="2">
         <v>326.3173942565918</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="14">
         <v>154.43235015869141</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="14">
         <v>66.127105712890625</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="14">
         <v>48.525508880615227</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="16">
         <v>29.759563446044918</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
@@ -776,14 +791,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="17">
         <v>585.42433447265637</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="17">
         <v>288.62665103149419</v>
       </c>
       <c r="E10" s="4">
@@ -800,7 +815,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
@@ -824,7 +839,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
@@ -848,7 +863,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -860,21 +875,21 @@
       <c r="D13" s="2">
         <v>865.09870529174805</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="14">
         <v>465.02096557617188</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="14">
         <v>228.14956283569339</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="14">
         <v>87.912364959716797</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="16">
         <v>11.13698196411133</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
@@ -898,7 +913,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
@@ -922,7 +937,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
@@ -946,14 +961,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="15">
         <v>1341.511043548584</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="15">
         <v>769.33935928344727</v>
       </c>
       <c r="E17" s="6">
@@ -970,7 +985,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -979,16 +994,16 @@
       <c r="C18" s="2">
         <v>1515.352714538574</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="14">
         <v>604.70450210571289</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="14">
         <v>408.58987808227539</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="14">
         <v>241.27885055541989</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="14">
         <v>182.72611618041989</v>
       </c>
       <c r="H18" s="3">
@@ -996,7 +1011,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
@@ -1015,12 +1030,12 @@
       <c r="G19" s="4">
         <v>261.57083892822271</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="18">
         <v>117.31520843505859</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1059,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1068,11 +1083,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="15">
         <v>1181.081169128418</v>
       </c>
       <c r="D22" s="6">
@@ -1092,33 +1107,33 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="14">
         <v>1058.43444442749</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="14">
         <v>509.98664855957031</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="14">
         <v>338.08849716186518</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="14">
         <v>201.4298210144043</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="14">
         <v>135.6663703918457</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="16">
         <v>111.09550094604489</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1157,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1181,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
@@ -1190,7 +1205,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="10" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1229,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1223,24 +1238,24 @@
       <c r="C28" s="2">
         <v>2052.3599243164058</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="14">
         <v>620.6705444335937</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="14">
         <v>394.3446085611979</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="14">
         <v>207.86320800781249</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="14">
         <v>119.7660685221354</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="16">
         <v>80.513635253906244</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1279,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1303,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
@@ -1312,11 +1327,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="15">
         <v>1071.8019165039061</v>
       </c>
       <c r="D32" s="6">
@@ -1337,15 +1352,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/results/MSE/result.xlsx
+++ b/results/MSE/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navneet\College\win21\LSM\agarwalvarun1-Color-Quantization\results\MSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED53E5-F9BB-40FB-A892-6B908C8514A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D5E2E-4805-4AF1-8772-D1FA968C359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="167" formatCode="###0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -82,29 +82,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,60 +209,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,24 +577,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1">
         <v>8</v>
       </c>
@@ -619,734 +615,734 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="7">
         <v>503.57406997680658</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>369.28163909912109</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="7">
         <v>207.75263214111331</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="7">
         <v>130.69082260131839</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="7">
         <v>67.292922973632813</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="9">
         <v>42.308444976806641</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>987.64794540405273</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="10">
         <v>507.31674194335938</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <v>450.45659255981451</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <v>265.20977020263672</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="10">
         <v>122.6216697692871</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="11">
         <v>55.947738647460938</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <v>901.8757159461976</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="10">
         <v>494.04546379852292</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <v>308.84777721405032</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>210.28731361007689</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="10">
         <v>131.08060437011719</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <v>100.9953300209046</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10">
         <v>2213.185913085938</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="10">
         <v>1173.658946990967</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="10">
         <v>507.04805755615229</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <v>292.80041885375982</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="10">
         <v>150.81568908691409</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <v>80.739768981933594</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="12">
         <v>610.95843505859375</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>362.0911865234375</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="12">
         <v>234.5730285644531</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="12">
         <v>140.24442291259771</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="12">
         <v>86.132957458496094</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="14">
         <v>55.715286254882813</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <v>798.19816970825195</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>326.3173942565918</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="7">
         <v>154.43235015869141</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="7">
         <v>66.127105712890625</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="7">
         <v>48.525508880615227</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="9">
         <v>29.759563446044918</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="10">
         <v>1927.0882301330571</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="10">
         <v>575.30696105957031</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="10">
         <v>289.58040237426758</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <v>140.9533767700195</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <v>63.248737335205078</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <v>41.804443359375</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>585.42433447265637</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>288.62665103149419</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="10">
         <v>164.44277314376831</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>109.3125167694092</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <v>86.533383754730224</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="11">
         <v>68.733689422607426</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="10">
         <v>2574.3661003112788</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="10">
         <v>1316.2348251342769</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="10">
         <v>548.38505554199219</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>218.77590560913089</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>154.84501266479489</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>78.22247314453125</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="12">
         <v>755.1627311706543</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="12">
         <v>531.59170913696289</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="12">
         <v>344.62517166137701</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="12">
         <v>181.6237907409668</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="12">
         <v>117.8428688049316</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="14">
         <v>72.504161834716797</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="8">
         <v>2144.2216987609859</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="8">
         <v>865.09870529174805</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="7">
         <v>465.02096557617188</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="7">
         <v>228.14956283569339</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="7">
         <v>87.912364959716797</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="9">
         <v>11.13698196411133</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="10">
         <v>4301.8860778808594</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="10">
         <v>1794.173873901367</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="10">
         <v>576.35398864746094</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>414.41887664794922</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <v>214.94583511352539</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="11">
         <v>30.592861175537109</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="10">
         <v>2263.6457164192202</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="10">
         <v>1176.3440100669859</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="10">
         <v>623.51989576339724</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <v>352.64093564224248</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="10">
         <v>205.80714130020141</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="11">
         <v>133.76673824691781</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="10">
         <v>2654.9272117614751</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="10">
         <v>1128.411254882812</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="10">
         <v>588.51519393920898</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="10">
         <v>249.65167236328119</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="10">
         <v>90.496135711669922</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="11">
         <v>24.491756439208981</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>1341.511043548584</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>769.33935928344727</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="12">
         <v>480.0419807434082</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="12">
         <v>285.0844841003418</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="12">
         <v>166.66775894165039</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="14">
         <v>75.667255401611328</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <v>1515.352714538574</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="7">
         <v>604.70450210571289</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="7">
         <v>408.58987808227539</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="7">
         <v>241.27885055541989</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="7">
         <v>182.72611618041989</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="16">
         <v>147.47897720336911</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="10">
         <v>2414.5783500671391</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="10">
         <v>918.64838790893555</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="10">
         <v>526.52292251586914</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="10">
         <v>421.4014778137207</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="10">
         <v>261.57083892822271</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>117.31520843505859</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="10">
         <v>1593.643611801147</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="10">
         <v>908.24193209838893</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="10">
         <v>532.07119551467906</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="10">
         <v>331.38249833679203</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="10">
         <v>235.43187736892699</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="11">
         <v>174.54928826522831</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="10">
         <v>5518.009838104248</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="10">
         <v>2363.771533966064</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="10">
         <v>1021.703853607178</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10">
         <v>533.60739135742188</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <v>282.79961013793951</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="11">
         <v>159.27753829956049</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>1181.081169128418</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="12">
         <v>640.87446594238281</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="12">
         <v>459.75656127929688</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="12">
         <v>326.84870910644531</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="12">
         <v>225.61252593994141</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="14">
         <v>144.02049255371091</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="7">
         <v>1058.43444442749</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="7">
         <v>509.98664855957031</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="7">
         <v>338.08849716186518</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="7">
         <v>201.4298210144043</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="7">
         <v>135.6663703918457</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="9">
         <v>111.09550094604489</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="10">
         <v>3596.123706817627</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="10">
         <v>1383.008533477783</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="10">
         <v>487.08604431152338</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="10">
         <v>396.79328536987299</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="10">
         <v>217.3528747558594</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="11">
         <v>116.9523086547852</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="10">
         <v>1171.1486880416869</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="10">
         <v>723.93312269592298</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="10">
         <v>487.26228161239629</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="10">
         <v>336.98791406631472</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="10">
         <v>221.69730853652959</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="11">
         <v>147.32291145706179</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="10">
         <v>5763.4424209594727</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="10">
         <v>1739.1526145935061</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="10">
         <v>1134.5774803161621</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="10">
         <v>654.30894088745117</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="10">
         <v>294.97084808349609</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="11">
         <v>174.12849044799799</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="12">
         <v>1141.983947753906</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="12">
         <v>660.83551788330078</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="12">
         <v>359.15390014648438</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="12">
         <v>243.68763732910159</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="12">
         <v>165.43482971191409</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="14">
         <v>113.9224472045898</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="8">
         <v>2052.3599243164058</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="7">
         <v>620.6705444335937</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="7">
         <v>394.3446085611979</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="7">
         <v>207.86320800781249</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="7">
         <v>119.7660685221354</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="9">
         <v>80.513635253906244</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="10">
         <v>3928.6269165039062</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="10">
         <v>983.24679768880208</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="10">
         <v>503.91368408203118</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="10">
         <v>375.00112304687502</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="10">
         <v>225.64595133463541</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="11">
         <v>116.6212931315104</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="10">
         <v>1533.4136895263671</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="10">
         <v>827.28185185546886</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="10">
         <v>467.48685171305351</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="10">
         <v>299.89495192871101</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="10">
         <v>201.67111011962891</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="11">
         <v>136.91921053873699</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="10">
         <v>3993.172241210938</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="10">
         <v>1789.8325154622401</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="10">
         <v>816.94576822916667</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="10">
         <v>530.81293538411455</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="10">
         <v>272.50495198567711</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="11">
         <v>146.50396321614579</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>1071.8019165039061</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="12">
         <v>641.84662679036455</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="12">
         <v>411.96079508463538</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="12">
         <v>239.70933837890621</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="12">
         <v>156.02886962890619</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="14">
         <v>102.06964111328119</v>
       </c>
     </row>
